--- a/FlOpEDT/configuration/file_essai.xlsx
+++ b/FlOpEDT/configuration/file_essai.xlsx
@@ -5,11 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Salles" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Groupes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Modules" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Cours" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Paramètres" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
   <si>
     <t xml:space="preserve">Ne pas toucher aux colonnes ou à l’entête</t>
   </si>
@@ -32,22 +36,22 @@
     <t xml:space="preserve">Les identifiants doivent exister et être uniques, sinon la ligne est ignorée.</t>
   </si>
   <si>
-    <t xml:space="preserve">[Identifiant]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Nom]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prénom]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Adresse]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Statut]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Employeur]</t>
+    <t xml:space="preserve">Identifiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employeur</t>
   </si>
   <si>
     <t xml:space="preserve">AB</t>
@@ -110,13 +114,16 @@
     <t xml:space="preserve">Une catégorie de salle est une liste de salles ou de groupes dont l’un sera choisi pour recevoir le cours.</t>
   </si>
   <si>
-    <t xml:space="preserve">Les cases avec crochet servent de délimiteurs pour le traitement automatique : l’une en dessous de l’autre, sur la même colonne, dans le même ordre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[GROUPES]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salles concernées ; une par colonne jusqu’à la première case vide</t>
+    <t xml:space="preserve">Une liste est donnée en mettant un élément par colonne horizontalement jusqu’à la première case vide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les cases Groupes et Catégories servent de délimiteurs pour le traitement automatique : l’une en dessous de l’autre, sur la même colonne, dans le même ordre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salles concernées</t>
   </si>
   <si>
     <t xml:space="preserve">une</t>
@@ -167,10 +174,10 @@
     <t xml:space="preserve">38</t>
   </si>
   <si>
-    <t xml:space="preserve">[CATÉGORIES]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salles et groupes concernés ; un par colonne jusqu’à la première case vide</t>
+    <t xml:space="preserve">Catégories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salles et groupes concernés</t>
   </si>
   <si>
     <t xml:space="preserve">Cours_peu</t>
@@ -197,18 +204,433 @@
     <t xml:space="preserve">vide</t>
   </si>
   <si>
-    <t xml:space="preserve">tr</t>
+    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée), un identifiant vide signale la fin du tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT Informatique première année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT Informatique deuxième année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APSIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licence Pro APSIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doublon de test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premières années CPGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuxièmes années CPGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natures de groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le sur-groupe est celui immédiatement au dessus dans la hiérarchie, s’il y en a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur-groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPSI₁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPSI₂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCSI₁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCSI₂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSI₁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSI₂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un module est une charge d’enseignement sur une période et une promotion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’abréviation est le nom dans l’emploi du temps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code PPN (Programme Pédagogique National) concerne certaines formations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le responsable l’est du point de vue administratif et n’est pas forcément en charge de (tout) l’enseignement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas toucher aux colonnes ou à l’entête.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abréviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code PPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom complet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Période</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction à l’algorithmique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structures de données et algorithmes fondamentaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction aux bases de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases de données avancées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilités et statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisations mathématiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droits des technologies de l’information et de la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des systèmes d’information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication professionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborer en anglais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peu importe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre chose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un type de cours se présente sur deux lignes :</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> la première donne le nom du type, la durée, puis la liste des types de groupe concernés </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">un par colonne jusqu'à la première case vide</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- la seconde laisse vide le type et la durée, puis la liste des horaires de début possible (un par colonne jusqu'à la première case qui n'est pas une heure HH:MM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemple :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas toucher aux entêtes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée (min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ignorée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour les deux premiers, il faut changer les valeurs mais ne rien déplacer, ajouter ou enlever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le dernier est par nature extensible : il ne faut pas toucher à l’entête mais les lignes peuvent être ajoutées, enlevées, laissées vides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans ce dernier tableau, les identifiants doivent exister et être uniques, sinon la ligne est ignorée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jours ouvrables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début de journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin de journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début de pause méridienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin de pause méridienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granularité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Périodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,21 +692,71 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -316,13 +788,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -337,37 +809,149 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -397,7 +981,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -447,10 +1031,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +1042,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
@@ -479,112 +1063,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E26" type="list">
+      <formula1>"Permanent,Vacataire,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="alice.bertrand@flopedt.org"/>
-    <hyperlink ref="D6" r:id="rId2" display="amandine.boris@flopedt.org"/>
-    <hyperlink ref="D7" r:id="rId3" display="christine.david@flopedt.org"/>
-    <hyperlink ref="D9" r:id="rId4" display="edgar.florent@flopedt.org"/>
+    <hyperlink ref="D6" r:id="rId1" display="alice.bertrand@flopedt.org"/>
+    <hyperlink ref="D7" r:id="rId2" display="amandine.boris@flopedt.org"/>
+    <hyperlink ref="D8" r:id="rId3" display="christine.david@flopedt.org"/>
+    <hyperlink ref="D10" r:id="rId4" display="edgar.florent@flopedt.org"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -601,10 +1330,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,197 +1344,393 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C9" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D9" s="13" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" s="17" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -814,4 +1739,1499 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21"/>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="D28:H28"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B29:B42" type="list">
+      <formula1>Groupes!$A$5:$A$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C29:C42" type="list">
+      <formula1>Groupes!$A$17:$A$21</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D29:H46" type="list">
+      <formula1>Groupes!$A$29:$A$46</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="26" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="I12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F35" type="list">
+      <formula1>Intervenants!$A$6:$A$26</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E35" type="list">
+      <formula1>Paramètres!$D$14:$D$23</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D35" type="list">
+      <formula1>Groupes!$A$5:$A$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="10.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="28" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="27" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D6" s="27" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="33" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="35" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="34" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="35" t="n">
+        <v>120</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="34" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E14" s="34" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F14" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G14" s="34" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="35" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="34" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:I10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="38" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="38" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="38" t="n">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="37" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>36</v>
+      </c>
+      <c r="F14" s="40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="40" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="40" t="n">
+        <v>36</v>
+      </c>
+      <c r="F16" s="40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="40" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>36</v>
+      </c>
+      <c r="F19" s="40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:J8" type="list">
+      <formula1>"X"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/FlOpEDT/configuration/file_essai.xlsx
+++ b/FlOpEDT/configuration/file_essai.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -429,6 +429,9 @@
     <t xml:space="preserve">Introduction à l’algorithmique</t>
   </si>
   <si>
+    <t xml:space="preserve">deux</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDA</t>
   </si>
   <si>
@@ -438,6 +441,9 @@
     <t xml:space="preserve">Structures de données et algorithmes fondamentaux</t>
   </si>
   <si>
+    <t xml:space="preserve">trois</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBD</t>
   </si>
   <si>
@@ -447,6 +453,9 @@
     <t xml:space="preserve">Introduction aux bases de données</t>
   </si>
   <si>
+    <t xml:space="preserve">quatre</t>
+  </si>
+  <si>
     <t xml:space="preserve">BDA</t>
   </si>
   <si>
@@ -456,6 +465,9 @@
     <t xml:space="preserve">Bases de données avancées</t>
   </si>
   <si>
+    <t xml:space="preserve">cinq</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRST</t>
   </si>
   <si>
@@ -465,6 +477,9 @@
     <t xml:space="preserve">Probabilités et statistique</t>
   </si>
   <si>
+    <t xml:space="preserve">six</t>
+  </si>
+  <si>
     <t xml:space="preserve">MM</t>
   </si>
   <si>
@@ -474,6 +489,9 @@
     <t xml:space="preserve">Modélisations mathématiques</t>
   </si>
   <si>
+    <t xml:space="preserve">sept</t>
+  </si>
+  <si>
     <t xml:space="preserve">DTIC</t>
   </si>
   <si>
@@ -483,6 +501,9 @@
     <t xml:space="preserve">Droits des technologies de l’information et de la communication</t>
   </si>
   <si>
+    <t xml:space="preserve">huit</t>
+  </si>
+  <si>
     <t xml:space="preserve">GSI</t>
   </si>
   <si>
@@ -492,6 +513,9 @@
     <t xml:space="preserve">Gestion des systèmes d’information</t>
   </si>
   <si>
+    <t xml:space="preserve">neuf</t>
+  </si>
+  <si>
     <t xml:space="preserve">CP</t>
   </si>
   <si>
@@ -501,7 +525,7 @@
     <t xml:space="preserve">Communication professionnelle</t>
   </si>
   <si>
-    <t xml:space="preserve">CPAN</t>
+    <t xml:space="preserve">dix</t>
   </si>
   <si>
     <t xml:space="preserve">M3206</t>
@@ -510,7 +534,13 @@
     <t xml:space="preserve">Collaborer en anglais</t>
   </si>
   <si>
+    <t xml:space="preserve">pif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peu importe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paf</t>
   </si>
   <si>
     <t xml:space="preserve">Autre chose</t>
@@ -972,7 +1002,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
   </cols>
@@ -1224,7 +1254,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.83"/>
@@ -1516,7 +1546,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2440,21 +2470,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="52.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="52.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="20.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,55 +2511,63 @@
       <c r="A5" s="23" t="s">
         <v>125</v>
       </c>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
         <v>29</v>
       </c>
+      <c r="B6" s="23"/>
     </row>
     <row r="8" s="30" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="0" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2539,230 +2577,263 @@
         <v>136</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>137</v>
+      <c r="A11" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
+      <c r="A12" s="0"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="I12" s="0"/>
+      <c r="G12" s="11"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>140</v>
+      <c r="A13" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>143</v>
+      <c r="A14" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>146</v>
+      <c r="A15" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>149</v>
+      <c r="A16" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>152</v>
+      <c r="A17" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>155</v>
+      <c r="A18" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A19" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
+      <c r="A20" s="0"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="B21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
@@ -2771,6 +2842,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
@@ -2779,6 +2851,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
@@ -2787,6 +2860,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
@@ -2795,6 +2869,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11"/>
@@ -2803,6 +2878,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
@@ -2811,6 +2887,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
@@ -2819,6 +2896,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
@@ -2827,6 +2905,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
@@ -2835,6 +2914,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
@@ -2843,6 +2923,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
@@ -2851,6 +2932,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
@@ -2859,6 +2941,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
@@ -2867,18 +2950,19 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G9:G35" type="list">
       <formula1>Intervenants!$A$6:$A$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F35" type="list">
       <formula1>Paramètres!$D$14:$D$23</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E35" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2900,8 +2984,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2914,36 +2998,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,7 +3046,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,13 +3056,13 @@
     </row>
     <row r="10" s="35" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -2989,7 +3073,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B11" s="29" t="n">
         <v>60</v>
@@ -3066,7 +3150,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36"/>
       <c r="B15" s="29" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
